--- a/Equipe204.xlsx
+++ b/Equipe204.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1149" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FBA0429-F47F-413A-82AE-9BB30AF993DB}"/>
+  <xr:revisionPtr revIDLastSave="1304" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F12DAFE-79E4-4936-BA75-76C204F64D7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="Documents" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="188">
   <si>
     <t>Fonct.</t>
   </si>
@@ -59,6 +60,9 @@
     <t>Note pondérée</t>
   </si>
   <si>
+    <t>Documents</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -105,6 +109,10 @@
   </si>
   <si>
     <t>Creation game contient trop de logiques</t>
+  </si>
+  <si>
+    <t>game.card.component envoie et ecoute des events socket ce qui n'est pas une bonne pratique. Cette responsabilité devraient etre dans un service type controlleur qui lui est responsable de la communication avec le serveur 
+Ok pour le reste</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -130,6 +138,9 @@
   </si>
   <si>
     <t>Bon travail</t>
+  </si>
+  <si>
+    <t>Vous avez des grosses classes avec beaucoup trop de responsabilités. Vos énormes fichiers de tests témoignent de ce problème</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -143,6 +154,9 @@
     <t>inputValue2 n'est pas utilisé</t>
   </si>
   <si>
+    <t>Bon travail!</t>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -160,7 +174,7 @@
 La classe minimise les longues chaînes d'appels (ex : foo.bar.baz.foo)</t>
   </si>
   <si>
-    <t>Bon travail!</t>
+    <t>PlayAreaComponent a un peu trop de couplage</t>
   </si>
   <si>
     <t>2.5 Valeur par défaut</t>
@@ -170,6 +184,9 @@
   </si>
   <si>
     <t>Parfois vous initialisez dans le constructeur parfois à la défintion. Voir PlayAreaComponent, CreationGamePageComponent</t>
+  </si>
+  <si>
+    <t>Bravo</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -204,10 +221,16 @@
     <t>La console ne génère pas de message d'avertissement (warning) ou d'erreur (error) qui aurait pu être gérés par le programme.</t>
   </si>
   <si>
+    <t>Bon travial</t>
+  </si>
+  <si>
     <t>4.2 Code asynchrone</t>
   </si>
   <si>
     <t>Le code asynchrone (Promise, Observable, Event) est géré adéquatement.</t>
+  </si>
+  <si>
+    <t>return await initule dans gameservice</t>
   </si>
   <si>
     <t>4.3 Message d'erreur</t>
@@ -230,6 +253,11 @@
 Il faut grouper les constantes dans un folders communs de facon logique</t>
   </si>
   <si>
+    <t xml:space="preserve">slideConfig and config page devraient etre une constante qui respect le format et regroupé avec les autres
+classic.mode.gateway constants devraient etre regroupé avec les autres consts
+Vous avez un fichier constant.ts mais qui n'est pas mis dans un folder est qui ne contient pas tous les constantes </t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -276,6 +304,9 @@
     <t xml:space="preserve"> if (game === undefined || game === null)   peut etre simplifié</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -289,9 +320,6 @@
 La langue utilisée pour les commentaires doit être uniforme, mais peut être différente que la langue du code source.</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7.2 Commentaire</t>
   </si>
   <si>
@@ -307,10 +335,16 @@
     <t>Ok</t>
   </si>
   <si>
+    <t>Déplacer vos enums dans un fodler de enums. Prioriser l'utilisation des enums sur des constantes.</t>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
+  </si>
+  <si>
+    <t>Le any dans un fichier de test n'est pass acceptable. Prioriser la création de stubs et de mocks spécifique à votre tests.</t>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -329,6 +363,11 @@
     <t>Chiffres magiques dans DetectionDifferenceService</t>
   </si>
   <si>
+    <t xml:space="preserve">eslint-disable-next-line max-params -- needed for constructor
+eslint-disable-next-line max-params
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -336,6 +375,12 @@
   </si>
   <si>
     <t>pour les fonctions dans DetectionDifferenceService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch case trop complexe partout dans le code. 
+Séparer en focntions dans chaque case, et pour chaque event socket dans handleSockets. 
+Vos components comportent beaucoup de logique, à revoir les fonctions de ngAfterViewInit. Ex: GameCreationComponent
+ </t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -346,6 +391,11 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
+    <t xml:space="preserve">Les noms des fonctions: ctrlShiftZ, ctrlZ, pushAndSwapForegrounds, joinWaitingRoomClassicModeMulti ne sont pas idéales.
+DelayBeforeEmittingTime pas correcte
+</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -461,6 +511,12 @@
     <t>2.3 Mode Classique en un contre un</t>
   </si>
   <si>
+    <t xml:space="preserve">Bon travail! </t>
+  </si>
+  <si>
+    <t>Tests qui faile server-side classic-mode, game.service</t>
+  </si>
+  <si>
     <t>2.4 Vue de jeu en un contre un et Section des messages</t>
   </si>
   <si>
@@ -504,13 +560,122 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Document d'Architecture</t>
+  </si>
+  <si>
+    <t>Protocole de communication</t>
+  </si>
+  <si>
+    <t>Historique des révisions</t>
+  </si>
+  <si>
+    <t>1 Introduction /1</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien, mais vous devriez décrire un peu le contexte de votre application </t>
+  </si>
+  <si>
+    <t>2 Vue des cas d'utilisation /5</t>
+  </si>
+  <si>
+    <t>2 Communication client-serveur /7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentaire général : 2 CUs doivent avoir une relation nommée entre eux. Il vous manque des relations "include", "extend" ou des généralisations. Ex : page 6, "Joueur en solo" - include - "Identifier une différence"
+Figure 1 : Manque des relations "include"  entre "jouer en solo" et les 2 autres CUs. L'abandon ne doit pas être lié à "identifier une différence". Retirer "... à travers la touche i" dans le nom du CU en haut à droite.
+Figure 2 : Manque un CU pour la réinitialisation des meilleurs temps d'un jeu spécifique.
+Figure 3 et 4 : votre BD devrait être en relation directe avec les CUs. On assume par défaut que votre serveur fait partie de votre système.
+Figure 5 :  "Visualiser l'historique" devrait être liée à votre serveur ( source des données)
+Figure 6 : Les 2 premiers CUs présentent la même chose. Les 2 prochains CUs devraient inverser de place. Le 5e CU est un détail d'implémentation (à retirer). Le 6e CU devrait être dans la figure 2 et non ici.
+ </t>
+  </si>
+  <si>
+    <t>Vous ne devriez pas spécifier dans cette section les méthodes de requête HTTP, car cela alourdit la lecture. Vous pourriez être plus exhaustif sur la nécessité d'utiliser WebSocket pour la logique du jeu classique 1 contre 1. De plus, vous pourriez clarifier pourquoi il s'agit d'un avantage en termes de performances.</t>
+  </si>
+  <si>
+    <t>3 Vue des processus /6</t>
+  </si>
+  <si>
+    <t>3 Description des paquets /12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séparez ce diagramme en 2-3 plus petits pour améliorer la lisibilité. Tout mettre ensemble porte à confusion. Séparez le temps limté du mode classique et de la reprise vidéo. La page 13 devrait être un autre diagramme à part.
+Le message "Recherche joueur 2" porte à confusion vu que l'origine est le Joueur 2. Manque un message de retour aux 2 joueurs qui débute la partie en les mettant ensemble. 
+Manque un indicateur de fin de [loop] (plus de fiches ou temps  = 0). Les message de retour durant la partie devraient se rendre aux 2 Vues, pas juste "Vue". 
+Pour l'abandon, le message devrait partir de Joueur 2 à "Vue  autre joueur en jeu"(changez le nom pour Vue Joueur 2)
+Pour la reprise vidéo, les différents choix devraient être des [opt] sinon la séquence définie doit toujours avoir cet ordre. À mettre dans un diagramme à part.
+Pour la configuration des constantes, les choix devraient être des [opt] sinon la séquence définie doit toujours avoir cet ordre. À mettre dans un diagramme à part. Idem pour la réinitialisation à la fin du diagramme.
+La séquence de "Création nouveau jeu" n'a pas sa place ici : c'est une fonctionnalité du Sprint 1.
+La supression de l'historique devrait être un [alt] et non forcée après l'accès à l'historique.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le statut d'un PUT devrait dépendre du résultat de l'opération: 201, 204, 409, etc.
+Vous ne mentionnez jamais des statuts d'erreur (40x/50x).
+Vous ne devriez pas justifier vos structures de données de la sorte: GameForm est un objet qui contient le moins d’informations possible puisqu'il est envoyé en tableau lorsque tous les
+jeux sont envoyés au client </t>
+  </si>
+  <si>
+    <t>4 Vue logique /6</t>
+  </si>
+  <si>
+    <t>Page 14 : mauvaise description des paquetages. Votre client n'est pas responsable du "développement front-end". Les 2 premières phrases décrivent le comportement et non l'architecture.
+Page 15 : évitez des classes flottantes comme votre paquetage "services" : les liens entre ces services et les components définis plus haut sont les éléments les plus importants de cette section, mais ne sont pas présentées.
+Page 16 : la description du paquetage "Serveur" devrait être à la page 14. SocketIO est une librairie et non un protocole
+Figure 11 : vous avez seulement ClassicModeGateway. Est-ce que cette classe gère aussi le temps limité (donc un problème de nom) ou il manque une description de la gestion du temps limité. Vos constantes de temps sont dans Constants et devraient logiement être liés à GameService ou autre chose que ConfigService pour impacter le comportement de timer (attribut dans UserGame), mais une telle relation est absente.</t>
+  </si>
+  <si>
+    <t>5 Vue de déploiement /2</t>
+  </si>
+  <si>
+    <t>La notation UML n'est pas valide.
+Le client et le site web statique sont 2 concepts différents : votre utilisateur est votre client. Un diagramme de déploiement ne présente pas les utilisateurs du système.
+Le client ne communique pas par SSH avec votre instance AWS. De plus votre texte contredit votre diagramme.
+Le serveur statique est servi sur le port 80 et non 4200 (port pour le déploiement local seulement)
+Manque une indication que le client est un navigateur (Chrome ou autre) sur un ordinateur (à moins que votre site fonctionne sur un navigateur mobile)
+Manque le contenu du site web statique : HTML, CSS, assets (le code source de votre site web).
+Manque le système d'exploitation de la machine EC2 (Linux) dans le diagramme .
+Manque l'environnement d'exécution NodeJS utilisé par le serveur dynamique.</t>
+  </si>
+  <si>
+    <t>Forme /1</t>
+  </si>
+  <si>
+    <t>Vous avez des diagrammes et non des "schémas" (titres des figures)
+Notation UML à revoir dans les sections 2 à 5. Notions de include/exclude (section 2) et [alt]/[opt] (section 3) à revoir.
+Revoir section 3 et séparer la présentation en plusieurs diagrammes.
+Section 4 : la présentation entre Figure 10 et Figure 11 varie grandement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre présentation des termes dans la section 3 ne devrait pas s'y trouver. Vous devriez les introduire dans une annexe
+Soyez constant dans votre présentation: - Username: Est une chaine de charactère du nom du créateur de la partie
+- Username2: Est le nom du deuxième joueur s'il y a lieu
+Au niveau des WS, il est inutile de mentionner la destination, si la source est le client, il est évident que la destination est le serveur.
+</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>FORME</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -634,8 +799,41 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +977,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1484,6 +1706,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1494,7 +1785,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2128,6 +2419,58 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2283,6 +2626,9 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="20" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2673,10 +3019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA667-0374-4556-B71F-558CE1E91347}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2689,7 +3035,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30.75">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>0</v>
@@ -2709,10 +3055,13 @@
       <c r="G3" s="129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="108">
         <f>(Fonctionnalités!E15)</f>
@@ -2734,22 +3083,23 @@
         <f>D4*F4</f>
         <v>16.872000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.80199999999999994</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2757,12 +3107,16 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>17.791999999999998</v>
+      </c>
+      <c r="H5" s="116">
+        <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
+        <v>3.7450000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
@@ -2784,10 +3138,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="121">
+        <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
@@ -2802,6 +3160,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2813,8 +3172,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2833,36 +3192,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="A2" s="237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
+      <c r="A4" s="238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2882,62 +3241,62 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="237" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="224" t="s">
+      <c r="A6" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="239" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="B6" s="242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="221" t="s">
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="222"/>
-      <c r="K6" s="223"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="239" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="240"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="238"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="243"/>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2947,26 +3306,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="227" t="s">
+      <c r="A8" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="228"/>
+      <c r="B8" s="252"/>
+      <c r="C8" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="246"/>
       <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="228"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="228"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="246"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2975,12 +3336,12 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="45.75">
+    <row r="9" spans="1:17" ht="213">
       <c r="A9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="100">
         <v>0.8</v>
@@ -2989,13 +3350,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.7</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -3010,10 +3375,10 @@
     </row>
     <row r="10" spans="1:17" ht="76.5">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="100">
         <v>0.3</v>
@@ -3022,9 +3387,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="102">
+        <v>1</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
@@ -3042,10 +3409,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="230"/>
+      <c r="A11" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="248"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>5.4</v>
@@ -3057,7 +3424,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3081,24 +3448,24 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="234" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="228"/>
+      <c r="A12" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="252"/>
+      <c r="C12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="246"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="228"/>
+      <c r="F12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="246"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="228"/>
+      <c r="I12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="246"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3107,12 +3474,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="106.5">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3121,14 +3488,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3140,10 +3511,10 @@
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="83">
         <v>0.8</v>
@@ -3152,14 +3523,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3171,10 +3546,10 @@
     </row>
     <row r="15" spans="1:17" ht="60.75">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3183,14 +3558,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="86">
+        <v>1</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3200,12 +3579,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="45.75">
       <c r="A16" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3214,14 +3593,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.7</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3233,10 +3616,10 @@
     </row>
     <row r="17" spans="1:17" ht="106.5">
       <c r="A17" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="83">
         <v>0</v>
@@ -3245,14 +3628,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3263,10 +3650,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="48.75">
-      <c r="A18" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="230"/>
+      <c r="A18" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="248"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8.6</v>
@@ -3278,7 +3665,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3302,34 +3689,34 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="226" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="228"/>
+      <c r="A19" s="244" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="246"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="228"/>
+      <c r="F19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="246"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="228"/>
+      <c r="I19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="246"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="91.5">
       <c r="A20" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C20" s="83">
         <v>0.4</v>
@@ -3338,13 +3725,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="86">
+        <v>1</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3355,10 +3746,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3367,13 +3758,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3383,10 +3778,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="231" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="232"/>
+      <c r="A22" s="249" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="250"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>4.2</v>
@@ -3398,7 +3793,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3419,33 +3814,33 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="228"/>
+      <c r="C23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="246"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="228"/>
+      <c r="F23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="246"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="228"/>
+      <c r="I23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="246"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3454,13 +3849,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>36</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>1</v>
@@ -3469,12 +3868,12 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25" s="83">
         <v>1</v>
@@ -3483,13 +3882,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>59</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>2</v>
@@ -3500,10 +3903,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3512,13 +3915,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3528,10 +3935,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="233" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="232"/>
+      <c r="A27" s="251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="250"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>4</v>
@@ -3543,7 +3950,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3563,36 +3970,38 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="226" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="228"/>
+      <c r="A28" s="244" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="244"/>
+      <c r="C28" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="246"/>
       <c r="E28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="228"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="228"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="246"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="137.25">
+    <row r="29" spans="1:17" ht="275.25">
       <c r="A29" s="31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C29" s="79">
         <v>0.3</v>
@@ -3601,14 +4010,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>65</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0.1</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>66</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3620,10 +4033,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3632,7 +4045,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
@@ -3649,10 +4064,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3661,9 +4076,11 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="86"/>
+        <v>71</v>
+      </c>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3679,10 +4096,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="230"/>
+      <c r="A32" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="248"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>4.5999999999999996</v>
@@ -3694,7 +4111,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3714,24 +4131,24 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="234" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="228"/>
+      <c r="A33" s="252" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="252"/>
+      <c r="C33" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="246"/>
       <c r="E33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="228"/>
+      <c r="G33" s="246"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="46"/>
@@ -3740,10 +4157,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3752,7 +4169,9 @@
         <v>2</v>
       </c>
       <c r="E34" s="81"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
@@ -3767,10 +4186,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3779,7 +4198,9 @@
         <v>2</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="89">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
@@ -3794,10 +4215,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3806,7 +4227,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="89">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
@@ -3821,10 +4244,10 @@
     </row>
     <row r="37" spans="1:13" ht="60.75">
       <c r="A37" s="23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C37" s="83">
         <v>0.7</v>
@@ -3833,9 +4256,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="F37" s="89">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
@@ -3848,11 +4273,11 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="230"/>
+    <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A38" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="248"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.1</v>
@@ -3864,13 +4289,15 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
         <v>10</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
@@ -3885,35 +4312,35 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="228"/>
+      <c r="C39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="246"/>
       <c r="E39" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="228"/>
+        <v>84</v>
+      </c>
+      <c r="F39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="246"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="228"/>
+      <c r="I39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="246"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -3922,14 +4349,18 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F40" s="86">
+        <v>1</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3941,10 +4372,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -3953,14 +4384,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F41" s="86">
+        <v>1</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -3970,12 +4405,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="76.5">
       <c r="A42" s="23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -3984,14 +4419,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>92</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
@@ -4000,12 +4439,12 @@
       <c r="K42" s="78"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="91.5">
       <c r="A43" s="23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -4014,14 +4453,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F43" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>95</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -4033,10 +4476,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4045,14 +4488,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F44" s="86">
+        <v>1</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4062,12 +4509,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="60.75">
+    <row r="45" spans="1:13" ht="91.5">
       <c r="A45" s="23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C45" s="83">
         <v>0.75</v>
@@ -4076,14 +4523,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>100</v>
+      </c>
+      <c r="F45" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>101</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4093,12 +4544,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="60.75">
+    <row r="46" spans="1:13" ht="244.5">
       <c r="A46" s="23" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4107,14 +4558,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>104</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.4</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="88" t="s">
+        <v>105</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4124,12 +4579,12 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="76.5">
+    <row r="47" spans="1:13" ht="183">
       <c r="A47" s="23" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4138,14 +4593,18 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F47" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>108</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4157,10 +4616,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4169,7 +4628,9 @@
         <v>4</v>
       </c>
       <c r="E48" s="85"/>
-      <c r="F48" s="86"/>
+      <c r="F48" s="86">
+        <v>1</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4185,10 +4646,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="230"/>
+      <c r="A49" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="248"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>32</v>
@@ -4200,7 +4661,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4224,36 +4685,36 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="234" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="228"/>
+      <c r="A50" s="252" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="252"/>
+      <c r="C50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="246"/>
       <c r="E50" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="228"/>
+        <v>84</v>
+      </c>
+      <c r="F50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="246"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="228"/>
+      <c r="I50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="246"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4262,13 +4723,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>82</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4279,10 +4744,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4291,13 +4756,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>91</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4308,10 +4777,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4320,13 +4789,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4337,10 +4810,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4349,13 +4822,17 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F54" s="86">
+        <v>1</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>91</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4366,10 +4843,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4378,13 +4855,17 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>82</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>82</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4394,10 +4875,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="230"/>
+      <c r="A56" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="248"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>11</v>
@@ -4409,7 +4890,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4429,27 +4910,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="258"/>
-      <c r="F57" s="258"/>
-      <c r="G57" s="258"/>
-      <c r="H57" s="258"/>
-      <c r="I57" s="258"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="259"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="276"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="276"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="277"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="244" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="245"/>
+      <c r="A58" s="262" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="263"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>78.900000000000006</v>
@@ -4461,7 +4942,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>80.199999999999989</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4481,28 +4962,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="246" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="248">
+      <c r="A59" s="264" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="266">
         <f>C58/D58</f>
         <v>0.78900000000000003</v>
       </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="251">
+      <c r="D59" s="267"/>
+      <c r="E59" s="268"/>
+      <c r="F59" s="269">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="252"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="254">
+        <v>0.80199999999999994</v>
+      </c>
+      <c r="G59" s="270"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="272">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256"/>
+      <c r="J59" s="273"/>
+      <c r="K59" s="274"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -4561,7 +5042,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4578,10 +5059,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4597,15 +5078,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="260" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="A2" s="278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4618,7 +5099,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4629,42 +5110,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="264" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="A6" s="282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="284"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4680,15 +5161,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4704,13 +5185,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="138"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4726,13 +5207,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="135"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -4748,15 +5229,15 @@
         <v>12</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" s="135" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4772,15 +5253,15 @@
         <v>15</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75">
       <c r="A13" s="133" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -4796,15 +5277,15 @@
         <v>12</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="218" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -4820,18 +5301,18 @@
         <v>26</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
+        <v>138</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="285"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -4845,26 +5326,26 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="147" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -4880,9 +5361,9 @@
       <c r="F17" s="148"/>
       <c r="G17" s="150"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="151" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B18" s="152">
         <v>0.2</v>
@@ -4897,186 +5378,217 @@
       </c>
       <c r="F18" s="152"/>
       <c r="G18" s="154" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
-    </row>
-    <row r="20" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23.25">
+      <c r="A19" s="286" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="287"/>
+      <c r="C19" s="287"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="287"/>
+      <c r="G19" s="288"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="155" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B20" s="156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F20" s="156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="158" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B21" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="159">
         <v>26</v>
       </c>
       <c r="E21" s="159">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-    </row>
-    <row r="22" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="160" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="161" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B22" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="162">
         <v>14</v>
       </c>
       <c r="E22" s="162">
         <f t="shared" ref="E22:E28" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="F22" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="158" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>20.8</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="161" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="162">
         <v>12</v>
       </c>
       <c r="E24" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="158" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B25" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="159">
         <v>8</v>
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="160" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="161" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="162">
         <v>6</v>
       </c>
       <c r="E26" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F26" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="215" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B27" s="215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="215">
         <v>8</v>
       </c>
       <c r="E27" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
-    </row>
-    <row r="28" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F27" s="215" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="216" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="164" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B28" s="165"/>
       <c r="C28" s="165"/>
@@ -5085,34 +5597,34 @@
         <v>100</v>
       </c>
       <c r="E28" s="166">
-        <f>(SUM(E21:E26) + E30+E31+E32)/D28</f>
-        <v>0</v>
+        <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F28" s="166"/>
       <c r="G28" s="167"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="168" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="169"/>
       <c r="D29" s="169" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="170" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F29" s="170"/>
       <c r="G29" s="171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="172" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B30" s="173">
         <v>0</v>
@@ -5128,9 +5640,9 @@
       <c r="F30" s="173"/>
       <c r="G30" s="175"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="176" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B31" s="177">
         <v>0</v>
@@ -5146,9 +5658,9 @@
       <c r="F31" s="177"/>
       <c r="G31" s="179"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="180" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B32" s="181">
         <v>0</v>
@@ -5165,42 +5677,42 @@
       <c r="G32" s="183"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="261" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="262"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="263"/>
+      <c r="A33" s="279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="280"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="281"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F34" s="185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="187" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B35" s="188">
         <v>0</v>
@@ -5220,7 +5732,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="190" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B36" s="191">
         <v>0</v>
@@ -5240,7 +5752,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B37" s="188">
         <v>0</v>
@@ -5260,7 +5772,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="190" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B38" s="191">
         <v>0</v>
@@ -5280,7 +5792,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="187" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B39" s="188">
         <v>0</v>
@@ -5300,7 +5812,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="190" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B40" s="191">
         <v>0</v>
@@ -5320,7 +5832,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="187" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B41" s="188">
         <v>0</v>
@@ -5340,7 +5852,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="217" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B42" s="217">
         <v>0</v>
@@ -5360,7 +5872,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="193" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B43" s="194"/>
       <c r="C43" s="194"/>
@@ -5377,26 +5889,26 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="197" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="198"/>
       <c r="D44" s="198" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="199" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="201" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B45" s="202">
         <v>0</v>
@@ -5414,7 +5926,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="205" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B46" s="206">
         <v>0</v>
@@ -5432,7 +5944,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="209" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B47" s="210">
         <v>0</v>
@@ -5474,7 +5986,282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013C4575-3B6F-41BF-BADD-0C981A2545A9}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="289" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="289"/>
+      <c r="E1" s="289" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="289"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B2" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="220" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="221"/>
+      <c r="E3" s="220" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="221"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="222" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="223">
+        <v>1</v>
+      </c>
+      <c r="C4" s="223"/>
+      <c r="E4" s="222" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="223">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="223"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="220"/>
+      <c r="B5" s="224" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="220" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="224" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="223">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="223"/>
+      <c r="E6" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="223">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="223"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="220"/>
+      <c r="B7" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="220"/>
+      <c r="F7" s="236" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="222" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="223">
+        <v>4</v>
+      </c>
+      <c r="C8" s="223"/>
+      <c r="E8" s="222" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="223">
+        <v>9</v>
+      </c>
+      <c r="G8" s="223"/>
+    </row>
+    <row r="9" spans="1:7" ht="238.5" customHeight="1">
+      <c r="A9" s="220"/>
+      <c r="B9" s="225" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="226"/>
+      <c r="F9" s="225" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="223">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="223"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="220"/>
+      <c r="B11" s="227" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="223">
+        <v>1</v>
+      </c>
+      <c r="C12" s="223"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="226"/>
+      <c r="B13" s="234" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="228" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="223">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="223"/>
+      <c r="E14" s="228" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="229">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="223"/>
+    </row>
+    <row r="15" spans="1:7" ht="210.75">
+      <c r="A15" s="220"/>
+      <c r="B15" s="235" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="220"/>
+      <c r="F15" s="225" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="231">
+        <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
+        <v>15</v>
+      </c>
+      <c r="C16" s="231">
+        <f>SUM(C4,C6,C8,C10,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="231">
+        <f>SUM(F4,F6,F8)</f>
+        <v>15.4</v>
+      </c>
+      <c r="G16" s="231">
+        <f>SUM(G4,G6,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="230" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="231">
+        <f t="shared" ref="B17" si="1">B14</f>
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="231">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="230" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="231">
+        <f>F14</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="231">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="232" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="233">
+        <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
+        <v>0.75500000000000012</v>
+      </c>
+      <c r="C18" s="233">
+        <f>C16/20*0.9+C17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="232" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="233">
+        <f>F16/20*0.9+F17*0.1</f>
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="G18" s="233">
+        <f>G16/20*0.9+G17*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5483,7 +6270,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5615,20 +6402,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe204.xlsx
+++ b/Equipe204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F12DAFE-79E4-4936-BA75-76C204F64D7D}"/>
+  <xr:revisionPtr revIDLastSave="1526" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35FACF0B-FEDD-400C-9EB6-C7141B181031}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="210">
   <si>
     <t>Fonct.</t>
   </si>
@@ -115,6 +115,9 @@
 Ok pour le reste</t>
   </si>
   <si>
+    <t xml:space="preserve">Vos pages ont  trop de responsabilités. Faudrait les minimiser avec les services et d'autres components </t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -125,10 +128,16 @@
     <t xml:space="preserve">Client: services/  Server: services/ contient des noms de folders qui respectent pas kebabcase </t>
   </si>
   <si>
+    <t>Good job</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
     <t>2. Classe</t>
+  </si>
+  <si>
+    <t>MOD</t>
   </si>
   <si>
     <t>2.1 Responsabilité</t>
@@ -233,6 +242,9 @@
     <t>return await initule dans gameservice</t>
   </si>
   <si>
+    <t>return await</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
 Vous avez un fichier constant.ts mais qui n'est pas mis dans un folder est qui ne contient pas tous les constantes </t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -271,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>EMPTY_PIXEL.., NOT_TOP3...</t>
   </si>
   <si>
     <t>6. Expressions booléennes</t>
@@ -304,9 +322,6 @@
     <t xml:space="preserve"> if (game === undefined || game === null)   peut etre simplifié</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
 La langue utilisée pour les commentaires doit être uniforme, mais peut être différente que la langue du code source.</t>
   </si>
   <si>
+    <t>Ok</t>
+  </si>
+  <si>
     <t>7.2 Commentaire</t>
   </si>
   <si>
@@ -332,10 +350,10 @@
     <t>Le code utilise des enum lorsque c'est pertinent.</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
     <t>Déplacer vos enums dans un fodler de enums. Prioriser l'utilisation des enums sur des constantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de folder pour les enums dans le client. </t>
   </si>
   <si>
     <t>7.4 Classe et interface</t>
@@ -383,6 +401,9 @@
  </t>
   </si>
   <si>
+    <t>Fonctions dans: DrawingService. Meme remarque que celle donné en sprint2, les switch case sont trop complexes, par exemple ForegroundService.</t>
+  </si>
+  <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
   </si>
   <si>
@@ -411,6 +432,9 @@
     <t>La branche de développement possède le bon tag. (sprint1, sprint2, sprint3)</t>
   </si>
   <si>
+    <t xml:space="preserve">Votre remise du spritn devrait être sur la branche master, et ainsi le tag devrait être sur master. </t>
+  </si>
+  <si>
     <t>8.2 Commit</t>
   </si>
   <si>
@@ -458,9 +482,6 @@
     <t>1.1 Vue Initiale</t>
   </si>
   <si>
-    <t>MOD</t>
-  </si>
-  <si>
     <t>1.2 Vue de Sélection de partie</t>
   </si>
   <si>
@@ -538,21 +559,46 @@
     <t>3.1 Mode Temps Limité</t>
   </si>
   <si>
+    <t>RACHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si aucune fiche est disponible, il ne faut pas ce diriger vers la vue du jeu
+</t>
+  </si>
+  <si>
     <t>3.2 Remise des données à leur état initial</t>
   </si>
   <si>
     <t>3.3 Vue de Configuration - constantes de jeu</t>
   </si>
   <si>
+    <t>Bon travail pour les tests!</t>
+  </si>
+  <si>
     <t>3.4 Indices de jeu</t>
   </si>
   <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t>Good job 
+Bon travail pour les tests!</t>
+  </si>
+  <si>
     <t>3.5 Historique des parties jouées</t>
   </si>
   <si>
+    <t>Bon travail
+Bon travail pour les tests!</t>
+  </si>
+  <si>
     <t>3.6 Meilleurs temps</t>
   </si>
   <si>
+    <t xml:space="preserve">Bug: Supprimer les meilleurs temps ne se fait pas dés la première fois
+</t>
+  </si>
+  <si>
     <t>3.7 Messages de partie (global)</t>
   </si>
   <si>
@@ -581,6 +627,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bien, mais vous devriez décrire un peu le contexte de votre application </t>
+  </si>
+  <si>
+    <t>Toujours pas de contexte pour l'application.</t>
   </si>
   <si>
     <t>2 Vue des cas d'utilisation /5</t>
@@ -598,7 +647,18 @@
  </t>
   </si>
   <si>
+    <t xml:space="preserve">Le sens de vos flèches "extend" est inversé : c'est l'inverse d'un 'include'
+Figure 2 : manque un indication qu'il y a 2e joueur pour les CUs de partie coopérative.
+Figure 3 : Pas de CU pour visionner l'historique, seulement la supprimer.
+Figure 5 : Le CU de suppression est formulé différement que la figure 3, mais représente la même chose. Le CU de la figure 3 aurait dû être retiré. Problème de notation avec Server-BD de la remise initiale. 
+Figure 6 : Le message d'événement devrait être lié au Joueur ou idéalement à un autre acteur qui représente tous les joueurs actifs. Problème de notation avec Server-BD de la remise initiale. </t>
+  </si>
+  <si>
     <t>Vous ne devriez pas spécifier dans cette section les méthodes de requête HTTP, car cela alourdit la lecture. Vous pourriez être plus exhaustif sur la nécessité d'utiliser WebSocket pour la logique du jeu classique 1 contre 1. De plus, vous pourriez clarifier pourquoi il s'agit d'un avantage en termes de performances.</t>
+  </si>
+  <si>
+    <t>WebSocket n'est pas bien adapté pour vous car les sockets sont nécessaires pour permettre au client d'effectuer des requêtes, HTTP permet au client d'effectuer des requêtes aussi donc ce n'est pas un avantage.
+Bon travail!</t>
   </si>
   <si>
     <t>3 Vue des processus /6</t>
@@ -618,12 +678,26 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Figure 8 : "Affichage du prochain tour" est trop vague  : on ne voit pas la notion de montrer 2 nouvelles images et le changement au chronomètre. Manquent les conditions de fin de la loop : minuterie à 0 OU aucune paire d'images restante. La requête d'abandon doit provenir du Joueur : manque la gestion de l'abandon en multijoeur également puisque la partie ne se termine pas tout de suite. Les 2 derniers OPT ne sont pas valides et devraient être des conditions de fin du LOOP (commentaire en haut à gauche). La fin de partie ne doit pas être dans un ALT : lorsqu'on sort du LOOP, c'est à la fin de la partie. Pas de gestion des meilleurs temps dans le mode limité.
+Figure 9 : Pourquoi présenter les indices et l'abandon dans le même diagramme ? L'abandon du joueur 2 ne met pas la partie en mode solo pour le mode classique. Mauvaise notation OPT pour les indices. Manque un message de retour vers Joueur pour la rétroaction visuelle de l'indice.
+Les figures 8 et 9 démontrent une incompréhension des fonctionnalités du Sprint 3.
+Figure 10 : manque une notion LOOP pour indiquer que la reprise ne se termine pas après une action. La notation ALT doit englober vos OPT et pas seulement par la suite, sinon vous indiquez que le traitement de l'action est optionnelle. Aucun message de retour vers le Joueur après une action. IMPORTANT : aucun message de retour qui indique qu'on montre la reprise au Joueur. Selon votre séquence, on peut seulement faire des actions, mais pas voir la reprise de la partie.
+Figure 11 : manque un appel au serveur pour récupérer les constantes.  Aucun message de retour vers le Joueur après le traitement de ses changements par Serveur/BD.
+FIgure 12 : Manque de messages de retour vers l'utilisateur. Aucune intéraction avec le serveur donc l'historique est locale sur la machine seulement (va à l'encontre des fonctionnalités demandées)
+Figure 13 : mêmes commentaires que figure 12.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le statut d'un PUT devrait dépendre du résultat de l'opération: 201, 204, 409, etc.
 Vous ne mentionnez jamais des statuts d'erreur (40x/50x).
 Vous ne devriez pas justifier vos structures de données de la sorte: GameForm est un objet qui contient le moins d’informations possible puisqu'il est envoyé en tableau lorsque tous les
 jeux sont envoyés au client </t>
   </si>
   <si>
+    <t>Socket IO n'est pas un protocole de communication, mais une librairie utilisant Web Socket
+Bon travail!</t>
+  </si>
+  <si>
     <t>4 Vue logique /6</t>
   </si>
   <si>
@@ -631,6 +705,13 @@
 Page 15 : évitez des classes flottantes comme votre paquetage "services" : les liens entre ces services et les components définis plus haut sont les éléments les plus importants de cette section, mais ne sont pas présentées.
 Page 16 : la description du paquetage "Serveur" devrait être à la page 14. SocketIO est une librairie et non un protocole
 Figure 11 : vous avez seulement ClassicModeGateway. Est-ce que cette classe gère aussi le temps limité (donc un problème de nom) ou il manque une description de la gestion du temps limité. Vos constantes de temps sont dans Constants et devraient logiement être liés à GameService ou autre chose que ConfigService pour impacter le comportement de timer (attribut dans UserGame), mais une telle relation est absente.</t>
+  </si>
+  <si>
+    <t>Figure 9 : aucune référence à la base de données ?
+Figure 10 : VideoReplayComponent a seulement pause() et restart() et pas de méthode pour changer la vitesse ? GameFinderService et GameSetupService devraient minimalement utiliser CommunicationSocketService et peut être plus. PlayAreaService devrait avoir un lien avec DetectionDifferenceService logiquement. ChatBoxComponent devrait être lié à ChatService
+Figure 11 : toujours un visuel très différent de la figure 10.
+Figure 11 : n'est pas clair quelle(s) classe(s) comminque(nt) avec la base de données. Le sens de certains relations sont inversées. Ex : GameModeGateway devrait utiliser GameService ou du moins, la relation devrait aller dans les 2 sens.
+Vos diagrammes ne semblent pas refléter la réalité de votre implémentation</t>
   </si>
   <si>
     <t>5 Vue de déploiement /2</t>
@@ -646,6 +727,11 @@
 Manque l'environnement d'exécution NodeJS utilisé par le serveur dynamique.</t>
   </si>
   <si>
+    <t xml:space="preserve">La communication avec GitLab Pages se fait sur le port 80 et non 4200 (developpement local)
+NestJS est un cadriciel et non un serveur : il vous manque la notion de NodeJS et index.js qui est votre point d'entrée du serveur.
+Aucune présentation de votre base de données </t>
+  </si>
+  <si>
     <t>Forme /1</t>
   </si>
   <si>
@@ -653,6 +739,11 @@
 Notation UML à revoir dans les sections 2 à 5. Notions de include/exclude (section 2) et [alt]/[opt] (section 3) à revoir.
 Revoir section 3 et séparer la présentation en plusieurs diagrammes.
 Section 4 : la présentation entre Figure 10 et Figure 11 varie grandement.</t>
+  </si>
+  <si>
+    <t>Notation UML à revoir dans les section 2 à 5. La notation dans la section 3 porte à confusion au niveau des actions spécifiques dans certaines séquences.
+Section 3 démontre une incompréhension des fonctionnalités demandées au Sprint 3.
+Section 4 : la section 3 termine avec figure 13, mais votre section 4 commence avec figure 9.</t>
   </si>
   <si>
     <t xml:space="preserve">Votre présentation des termes dans la section 3 ne devrait pas s'y trouver. Vous devriez les introduire dans une annexe
@@ -1785,7 +1876,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2471,6 +2562,12 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3022,7 +3119,7 @@
   <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3091,7 +3188,7 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0.94799999999999995</v>
+        <v>1</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
@@ -3099,7 +3196,7 @@
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.88959999999999995</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3107,7 +3204,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>17.791999999999998</v>
+        <v>18.416</v>
       </c>
       <c r="H5" s="116">
         <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
@@ -3120,15 +3217,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
-        <v>0</v>
+        <v>0.96200000000000008</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.84200000000000008</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91400000000000015</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -3136,11 +3233,11 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.28</v>
       </c>
       <c r="H6" s="121">
         <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
-        <v>0</v>
+        <v>4.1793749999999994</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3150,7 +3247,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -3158,7 +3255,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H7" s="125"/>
     </row>
@@ -3172,8 +3269,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3192,36 +3289,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3241,36 +3338,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="259" t="s">
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="239" t="s">
+      <c r="G6" s="262"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="240"/>
-      <c r="K6" s="241"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="243"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="256"/>
+      <c r="P6" s="256"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="256"/>
-      <c r="B7" s="243"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3306,29 +3403,31 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="252" t="s">
+      <c r="A8" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="245" t="s">
+      <c r="B8" s="254"/>
+      <c r="C8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="246"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="245" t="s">
+      <c r="F8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="246"/>
+      <c r="G8" s="248"/>
       <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="245" t="s">
+      <c r="I8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -3361,11 +3460,15 @@
       <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>0.6</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="106" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3375,10 +3478,10 @@
     </row>
     <row r="10" spans="1:17" ht="76.5">
       <c r="A10" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="100">
         <v>0.3</v>
@@ -3387,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="102">
         <v>1</v>
@@ -3396,11 +3499,15 @@
         <v>2</v>
       </c>
       <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
+      <c r="I10" s="104">
+        <v>1</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="106" t="s">
+        <v>28</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3409,10 +3516,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="248"/>
+      <c r="A11" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="250"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>5.4</v>
@@ -3433,7 +3540,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3448,25 +3555,31 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="252" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="245" t="s">
+      <c r="A12" s="254" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="254"/>
+      <c r="C12" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="246"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="245" t="s">
+      <c r="D12" s="248"/>
+      <c r="E12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="246"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="245" t="s">
+      <c r="G12" s="248"/>
+      <c r="H12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="246"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3476,10 +3589,10 @@
     </row>
     <row r="13" spans="1:17" ht="106.5">
       <c r="A13" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3488,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="89">
         <v>0</v>
@@ -3498,23 +3611,27 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>35</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="83">
         <v>0.8</v>
@@ -3523,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="86">
         <v>1</v>
@@ -3533,23 +3650,27 @@
         <v>2</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="60.75">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3558,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="86">
         <v>1</v>
@@ -3568,23 +3689,27 @@
         <v>2</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="45.75">
       <c r="A16" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3593,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16" s="86">
         <v>0.7</v>
@@ -3603,23 +3728,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I16" s="76">
+        <v>1</v>
+      </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="106.5">
       <c r="A17" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="83">
         <v>0</v>
@@ -3628,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F17" s="86">
         <v>1</v>
@@ -3638,22 +3767,26 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>49</v>
+      </c>
+      <c r="I17" s="76">
+        <v>1</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="48.75">
-      <c r="A18" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="248"/>
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
+      <c r="A18" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="250"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8.6</v>
@@ -3674,7 +3807,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3689,34 +3822,40 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="244" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="244"/>
-      <c r="C19" s="245" t="s">
+      <c r="A19" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="246"/>
+      <c r="C19" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="246"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="245" t="s">
+      <c r="D19" s="248"/>
+      <c r="E19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="246"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="245" t="s">
+      <c r="G19" s="248"/>
+      <c r="H19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="246"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="91.5">
       <c r="A20" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="83">
         <v>0.4</v>
@@ -3725,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F20" s="86">
         <v>1</v>
@@ -3734,22 +3873,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3758,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21" s="86">
         <v>1</v>
@@ -3767,21 +3910,25 @@
         <v>3</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="249" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="250"/>
+      <c r="A22" s="251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="252"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>4.2</v>
@@ -3802,7 +3949,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3814,33 +3961,39 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="245" t="s">
+      <c r="C23" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="246"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="245" t="s">
+      <c r="D23" s="248"/>
+      <c r="E23" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="246"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="245" t="s">
+      <c r="G23" s="248"/>
+      <c r="H23" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="246"/>
-      <c r="K23" s="46"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3849,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24" s="82">
         <v>1</v>
@@ -3858,22 +4011,26 @@
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="73"/>
+        <v>59</v>
+      </c>
+      <c r="I24" s="73">
+        <v>1</v>
+      </c>
       <c r="J24" s="74">
         <v>1</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="83">
         <v>1</v>
@@ -3882,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" s="86">
         <v>0.8</v>
@@ -3891,22 +4048,26 @@
         <v>2</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="76"/>
+        <v>62</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0.8</v>
+      </c>
       <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3915,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -3924,21 +4085,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="251" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="250"/>
+      <c r="A27" s="253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="252"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>4</v>
@@ -3959,7 +4124,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -3970,38 +4135,38 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="244" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="244"/>
-      <c r="C28" s="245" t="s">
+      <c r="A28" s="246" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="246"/>
+      <c r="C28" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="245" t="s">
+      <c r="F28" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="246"/>
+      <c r="G28" s="248"/>
       <c r="H28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="245" t="s">
+      <c r="I28" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="246"/>
+      <c r="J28" s="248"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="275.25">
       <c r="A29" s="31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C29" s="79">
         <v>0.3</v>
@@ -4010,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F29" s="89">
         <v>0.1</v>
@@ -4020,23 +4185,27 @@
         <v>2</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="92"/>
+        <v>70</v>
+      </c>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -4053,7 +4222,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -4064,10 +4235,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -4076,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F31" s="86">
         <v>1</v>
@@ -4086,20 +4257,24 @@
         <v>2</v>
       </c>
       <c r="H31" s="96"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K31" s="78"/>
+      <c r="K31" s="78" t="s">
+        <v>77</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="248"/>
+      <c r="A32" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="250"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>4.5999999999999996</v>
@@ -4120,7 +4295,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -4131,21 +4306,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="252" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="245" t="s">
+      <c r="A33" s="254" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="254"/>
+      <c r="C33" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="246"/>
+      <c r="D33" s="248"/>
       <c r="E33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="245" t="s">
+      <c r="F33" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="246"/>
+      <c r="G33" s="248"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>18</v>
@@ -4157,10 +4332,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -4176,20 +4351,24 @@
         <v>2</v>
       </c>
       <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
-      <c r="K34" s="94"/>
+      <c r="K34" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -4205,7 +4384,9 @@
         <v>2</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="92">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
@@ -4215,10 +4396,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -4234,7 +4415,9 @@
         <v>3</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="92">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
@@ -4244,10 +4427,10 @@
     </row>
     <row r="37" spans="1:13" ht="60.75">
       <c r="A37" s="23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C37" s="83">
         <v>0.7</v>
@@ -4256,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F37" s="89">
         <v>1</v>
@@ -4265,19 +4448,23 @@
         <v>3</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="92">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
-      <c r="K37" s="78"/>
+      <c r="K37" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A38" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="248"/>
+      <c r="A38" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="250"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.1</v>
@@ -4296,11 +4483,11 @@
         <v>10</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
@@ -4312,35 +4499,39 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="245" t="s">
+      <c r="C39" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="246"/>
+      <c r="D39" s="248"/>
       <c r="E39" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="245" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="246"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="245" t="s">
+      <c r="G39" s="248"/>
+      <c r="H39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="246"/>
-      <c r="K39" s="46"/>
+      <c r="J39" s="248"/>
+      <c r="K39" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -4349,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F40" s="86">
         <v>1</v>
@@ -4359,23 +4550,27 @@
         <v>2</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="23" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -4384,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F41" s="86">
         <v>1</v>
@@ -4394,23 +4589,27 @@
         <v>2</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="I41" s="76">
+        <v>1</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="76.5">
       <c r="A42" s="23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -4419,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="86">
         <v>0.25</v>
@@ -4429,22 +4628,26 @@
         <v>2</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="76"/>
+        <v>97</v>
+      </c>
+      <c r="I42" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="78" t="s">
+        <v>98</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="91.5">
       <c r="A43" s="23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -4453,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="86">
         <v>0.75</v>
@@ -4463,23 +4666,27 @@
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" s="76"/>
+        <v>101</v>
+      </c>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4488,7 +4695,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="86">
         <v>1</v>
@@ -4498,23 +4705,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="91.5">
       <c r="A45" s="23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C45" s="83">
         <v>0.75</v>
@@ -4523,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F45" s="86">
         <v>0.5</v>
@@ -4533,23 +4744,27 @@
         <v>8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="76"/>
+        <v>107</v>
+      </c>
+      <c r="I45" s="76">
+        <v>1</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="244.5">
       <c r="A46" s="23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4558,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F46" s="86">
         <v>0.4</v>
@@ -4568,23 +4783,27 @@
         <v>6</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="76"/>
+        <v>111</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>112</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="183">
       <c r="A47" s="23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4593,7 +4812,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="86">
         <v>0.75</v>
@@ -4603,23 +4822,27 @@
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>115</v>
+      </c>
+      <c r="I47" s="76">
+        <v>1</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4636,20 +4859,24 @@
         <v>4</v>
       </c>
       <c r="H48" s="88"/>
-      <c r="I48" s="76"/>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="248"/>
+      <c r="A49" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="250"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>32</v>
@@ -4670,7 +4897,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4685,36 +4912,40 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="252" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="252"/>
-      <c r="C50" s="245" t="s">
+      <c r="A50" s="254" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="254"/>
+      <c r="C50" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="246"/>
+      <c r="D50" s="248"/>
       <c r="E50" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="245" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="246"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="245" t="s">
+      <c r="G50" s="248"/>
+      <c r="H50" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="246"/>
-      <c r="K50" s="46"/>
+      <c r="J50" s="248"/>
+      <c r="K50" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" ht="76.5">
       <c r="A51" s="29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4723,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F51" s="82">
         <v>1</v>
@@ -4732,22 +4963,26 @@
         <v>2</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="I51" s="73">
+        <v>0</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
-      <c r="K51" s="75"/>
+      <c r="K51" s="75" t="s">
+        <v>121</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4756,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F52" s="86">
         <v>1</v>
@@ -4765,22 +5000,26 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4789,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F53" s="86">
         <v>1</v>
@@ -4798,22 +5037,26 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
-      <c r="K53" s="78"/>
+      <c r="K53" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4822,7 +5065,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F54" s="86">
         <v>1</v>
@@ -4831,22 +5074,26 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="I54" s="76">
+        <v>1</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
-      <c r="K54" s="78"/>
+      <c r="K54" s="78" t="s">
+        <v>71</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4855,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4864,21 +5111,25 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
-      <c r="K55" s="78"/>
+      <c r="K55" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="247" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="248"/>
+      <c r="A56" s="249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="250"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>11</v>
@@ -4899,7 +5150,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4910,27 +5161,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="275" t="s">
+      <c r="A57" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="276"/>
-      <c r="C57" s="276"/>
-      <c r="D57" s="276"/>
-      <c r="E57" s="276"/>
-      <c r="F57" s="276"/>
-      <c r="G57" s="276"/>
-      <c r="H57" s="276"/>
-      <c r="I57" s="276"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="277"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="278"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="278"/>
+      <c r="F57" s="278"/>
+      <c r="G57" s="278"/>
+      <c r="H57" s="278"/>
+      <c r="I57" s="278"/>
+      <c r="J57" s="278"/>
+      <c r="K57" s="279"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="262" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="263"/>
+      <c r="A58" s="264" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="265"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>78.900000000000006</v>
@@ -4951,7 +5202,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="213">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -4962,28 +5213,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="264" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="266">
+      <c r="A59" s="266" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="267"/>
+      <c r="C59" s="268">
         <f>C58/D58</f>
         <v>0.78900000000000003</v>
       </c>
-      <c r="D59" s="267"/>
-      <c r="E59" s="268"/>
-      <c r="F59" s="269">
+      <c r="D59" s="269"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="271">
         <f>F58/G58</f>
         <v>0.80199999999999994</v>
       </c>
-      <c r="G59" s="270"/>
-      <c r="H59" s="271"/>
-      <c r="I59" s="272">
+      <c r="G59" s="272"/>
+      <c r="H59" s="273"/>
+      <c r="I59" s="274">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="273"/>
-      <c r="K59" s="274"/>
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="J59" s="275"/>
+      <c r="K59" s="276"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -5042,7 +5293,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 F34:F37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 I34:I37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -5061,8 +5312,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5078,15 +5329,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -5099,7 +5350,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5110,31 +5361,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="284"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5145,7 +5396,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5161,15 +5412,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -5191,7 +5442,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5213,7 +5464,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -5229,15 +5480,15 @@
         <v>12</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G11" s="135" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -5253,15 +5504,15 @@
         <v>15</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75">
       <c r="A13" s="133" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -5280,12 +5531,12 @@
         <v>19</v>
       </c>
       <c r="G13" s="218" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -5301,18 +5552,18 @@
         <v>26</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="285"/>
-      <c r="C15" s="285"/>
+        <v>145</v>
+      </c>
+      <c r="B15" s="287"/>
+      <c r="C15" s="287"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -5326,7 +5577,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -5336,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -5345,7 +5596,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="147" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -5363,7 +5614,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="151" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B18" s="152">
         <v>0.2</v>
@@ -5378,35 +5629,35 @@
       </c>
       <c r="F18" s="152"/>
       <c r="G18" s="154" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.25">
-      <c r="A19" s="286" t="s">
+      <c r="A19" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="287"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="290"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="155" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B20" s="156" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F20" s="156" t="s">
         <v>18</v>
@@ -5417,7 +5668,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="158" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B21" s="159">
         <v>1</v>
@@ -5433,15 +5684,15 @@
         <v>26</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G21" s="160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="161" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B22" s="162">
         <v>1</v>
@@ -5460,39 +5711,39 @@
         <v>19</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="158" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B23" s="159">
         <v>1</v>
       </c>
       <c r="C23" s="159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>20.8</v>
+        <v>26</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="161" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B24" s="162">
         <v>1</v>
@@ -5511,12 +5762,12 @@
         <v>19</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="158" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B25" s="159">
         <v>1</v>
@@ -5532,15 +5783,15 @@
         <v>8</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="161" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B26" s="162">
         <v>1</v>
@@ -5559,12 +5810,12 @@
         <v>19</v>
       </c>
       <c r="G26" s="163" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="215" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B27" s="215">
         <v>1</v>
@@ -5580,15 +5831,15 @@
         <v>8</v>
       </c>
       <c r="F27" s="215" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G27" s="216" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="164" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B28" s="165"/>
       <c r="C28" s="165"/>
@@ -5598,14 +5849,14 @@
       </c>
       <c r="E28" s="166">
         <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
-        <v>0.94799999999999995</v>
+        <v>1</v>
       </c>
       <c r="F28" s="166"/>
       <c r="G28" s="167"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="168" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>15</v>
@@ -5615,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="170" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F29" s="170"/>
       <c r="G29" s="171" t="s">
@@ -5624,7 +5875,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="172" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B30" s="173">
         <v>0</v>
@@ -5642,7 +5893,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="176" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B31" s="177">
         <v>0</v>
@@ -5660,7 +5911,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="180" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B32" s="181">
         <v>0</v>
@@ -5677,31 +5928,31 @@
       <c r="G32" s="183"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="279" t="s">
+      <c r="A33" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="280"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="280"/>
-      <c r="E33" s="280"/>
-      <c r="F33" s="280"/>
-      <c r="G33" s="281"/>
+      <c r="B33" s="282"/>
+      <c r="C33" s="282"/>
+      <c r="D33" s="282"/>
+      <c r="E33" s="282"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="283"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B34" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F34" s="185" t="s">
         <v>18</v>
@@ -5710,169 +5961,201 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="45.75">
       <c r="A35" s="187" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B35" s="188">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C35" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="188">
         <v>24</v>
       </c>
       <c r="E35" s="188">
         <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="188"/>
-      <c r="G35" s="189"/>
+        <v>21.6</v>
+      </c>
+      <c r="F35" s="188" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="238" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="190" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B36" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="191">
         <v>6</v>
       </c>
       <c r="E36" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="191"/>
-      <c r="G36" s="192"/>
+        <v>6</v>
+      </c>
+      <c r="F36" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="192" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="188">
         <v>6</v>
       </c>
       <c r="E37" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="188"/>
-      <c r="G37" s="189"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F37" s="188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="189" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30.75">
       <c r="A38" s="190" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B38" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="191">
         <v>12</v>
       </c>
       <c r="E38" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F38" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="237" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30.75">
       <c r="A39" s="187" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B39" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="188">
         <v>12</v>
       </c>
       <c r="E39" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="188"/>
-      <c r="G39" s="189"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F39" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="238" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45.75">
       <c r="A40" s="190" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B40" s="191">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C40" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="191">
         <v>14</v>
       </c>
       <c r="E40" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="191"/>
-      <c r="G40" s="192"/>
+        <v>12.6</v>
+      </c>
+      <c r="F40" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="237" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="187" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B41" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="188">
         <v>6</v>
       </c>
       <c r="E41" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
+        <v>6</v>
+      </c>
+      <c r="F41" s="188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="189" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="217" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B42" s="217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="217">
         <v>20</v>
       </c>
       <c r="E42" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="217" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="217" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="193" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B43" s="194"/>
       <c r="C43" s="194"/>
@@ -5881,15 +6164,15 @@
         <v>100</v>
       </c>
       <c r="E43" s="195">
-        <f>(SUM(E35:E41) +E45+E46+E47)/D43</f>
-        <v>0</v>
+        <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
+        <v>0.96200000000000008</v>
       </c>
       <c r="F43" s="195"/>
       <c r="G43" s="196"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="197" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B44" s="198" t="s">
         <v>15</v>
@@ -5899,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="199" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200" t="s">
@@ -5908,7 +6191,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="201" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B45" s="202">
         <v>0</v>
@@ -5926,7 +6209,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="205" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B46" s="206">
         <v>0</v>
@@ -5944,7 +6227,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="209" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B47" s="210">
         <v>0</v>
@@ -5990,27 +6273,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013C4575-3B6F-41BF-BADD-0C981A2545A9}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="289" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="289"/>
-      <c r="E1" s="289" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="289"/>
+      <c r="A1" s="291" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="291"/>
+      <c r="E1" s="291" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="291"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="B2" s="219" t="s">
@@ -6030,153 +6315,200 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="220" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B3" s="221"/>
       <c r="E3" s="220" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F3" s="221"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="222" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B4" s="223">
         <v>1</v>
       </c>
-      <c r="C4" s="223"/>
+      <c r="C4" s="223">
+        <v>1</v>
+      </c>
       <c r="E4" s="222" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F4" s="223">
         <v>0.9</v>
       </c>
-      <c r="G4" s="223"/>
+      <c r="G4" s="223">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="220"/>
       <c r="B5" s="224" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E5" s="220" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F5" s="224" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="222" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B6" s="223">
         <v>4.5</v>
       </c>
-      <c r="C6" s="223"/>
+      <c r="C6" s="223">
+        <v>4.75</v>
+      </c>
       <c r="E6" s="222" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F6" s="223">
         <v>5.5</v>
       </c>
-      <c r="G6" s="223"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G6" s="223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="243">
       <c r="A7" s="220"/>
       <c r="B7" s="221" t="s">
-        <v>172</v>
+        <v>187</v>
+      </c>
+      <c r="C7" s="221" t="s">
+        <v>188</v>
       </c>
       <c r="E7" s="220"/>
       <c r="F7" s="236" t="s">
-        <v>173</v>
+        <v>189</v>
+      </c>
+      <c r="G7" s="234" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="222" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B8" s="223">
         <v>4</v>
       </c>
-      <c r="C8" s="223"/>
+      <c r="C8" s="223">
+        <v>3.75</v>
+      </c>
       <c r="E8" s="222" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F8" s="223">
         <v>9</v>
       </c>
-      <c r="G8" s="223"/>
-    </row>
-    <row r="9" spans="1:7" ht="238.5" customHeight="1">
+      <c r="G8" s="223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6">
       <c r="A9" s="220"/>
       <c r="B9" s="225" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="C9" s="221" t="s">
+        <v>194</v>
       </c>
       <c r="E9" s="226"/>
       <c r="F9" s="225" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="G9" s="234" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="222" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B10" s="223">
         <v>4.5</v>
       </c>
-      <c r="C10" s="223"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C10" s="223">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="307.5">
       <c r="A11" s="220"/>
       <c r="B11" s="227" t="s">
-        <v>179</v>
+        <v>198</v>
+      </c>
+      <c r="C11" s="221" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="222" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B12" s="223">
         <v>1</v>
       </c>
-      <c r="C12" s="223"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C12" s="223">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="167.25">
       <c r="A13" s="226"/>
       <c r="B13" s="234" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="C13" s="221" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="228" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B14" s="223">
         <v>0.8</v>
       </c>
-      <c r="C14" s="223"/>
+      <c r="C14" s="223">
+        <v>0.8</v>
+      </c>
       <c r="E14" s="228" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F14" s="229">
         <v>0.5</v>
       </c>
-      <c r="G14" s="223"/>
+      <c r="G14" s="223">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="210.75">
       <c r="A15" s="220"/>
       <c r="B15" s="235" t="s">
-        <v>183</v>
+        <v>204</v>
+      </c>
+      <c r="C15" s="221" t="s">
+        <v>205</v>
       </c>
       <c r="E15" s="220"/>
       <c r="F15" s="225" t="s">
-        <v>184</v>
+        <v>206</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="230" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B16" s="231">
         <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
@@ -6184,10 +6516,10 @@
       </c>
       <c r="C16" s="231">
         <f>SUM(C4,C6,C8,C10,C12)</f>
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="E16" s="230" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F16" s="231">
         <f>SUM(F4,F6,F8)</f>
@@ -6195,12 +6527,12 @@
       </c>
       <c r="G16" s="231">
         <f>SUM(G4,G6,G8)</f>
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="230" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B17" s="231">
         <f t="shared" ref="B17" si="1">B14</f>
@@ -6208,10 +6540,10 @@
       </c>
       <c r="C17" s="231">
         <f>C14</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="230" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F17" s="231">
         <f>F14</f>
@@ -6219,12 +6551,12 @@
       </c>
       <c r="G17" s="231">
         <f>G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="232" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B18" s="233">
         <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
@@ -6232,10 +6564,10 @@
       </c>
       <c r="C18" s="233">
         <f>C16/20*0.9+C17*0.1</f>
-        <v>0</v>
+        <v>0.7662500000000001</v>
       </c>
       <c r="E18" s="232" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F18" s="233">
         <f>F16/20*0.9+F17*0.1</f>
@@ -6243,7 +6575,7 @@
       </c>
       <c r="G18" s="233">
         <f>G16/20*0.9+G17*0.1</f>
-        <v>0</v>
+        <v>0.90549999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -6256,21 +6588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6402,14 +6719,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>